--- a/Bases_de_Dados_(2022-2023)/Wales Welsh Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Wales Welsh Premier League_20222023.xlsx
@@ -38371,13 +38371,13 @@
         </is>
       </c>
       <c r="Q187" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R187" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S187" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="T187" t="n">
         <v>2.72</v>
@@ -38494,22 +38494,22 @@
         <v>0</v>
       </c>
       <c r="BF187" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BG187" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="BH187" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BI187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ187" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="BK187" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Wales Welsh Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Wales Welsh Premier League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK187"/>
+  <dimension ref="A1:BK193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AT2" t="n">
         <v>0.75</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>1.94</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1712,10 +1712,10 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1915,10 +1915,10 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         <v>1.31</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU9" t="n">
         <v>0.51</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="AT10" t="n">
         <v>1.69</v>
@@ -2933,7 +2933,7 @@
         <v>1.63</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT13" t="n">
         <v>1.25</v>
@@ -3339,7 +3339,7 @@
         <v>1.63</v>
       </c>
       <c r="AT14" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU14" t="n">
         <v>0.86</v>
@@ -3539,10 +3539,10 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AU15" t="n">
         <v>2.27</v>
@@ -4148,10 +4148,10 @@
         <v>3</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU18" t="n">
         <v>1.75</v>
@@ -4351,7 +4351,7 @@
         <v>3</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AT19" t="n">
         <v>0.75</v>
@@ -4554,10 +4554,10 @@
         <v>1</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AU20" t="n">
         <v>1.86</v>
@@ -4760,7 +4760,7 @@
         <v>1.31</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU21" t="n">
         <v>1.14</v>
@@ -4960,10 +4960,10 @@
         <v>2</v>
       </c>
       <c r="AS22" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AT22" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU22" t="n">
         <v>1.58</v>
@@ -5163,7 +5163,7 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT23" t="n">
         <v>0.8100000000000001</v>
@@ -5369,7 +5369,7 @@
         <v>2.38</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU24" t="n">
         <v>1.67</v>
@@ -5569,7 +5569,7 @@
         <v>1</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT25" t="n">
         <v>2.31</v>
@@ -5975,10 +5975,10 @@
         <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU27" t="n">
         <v>0.36</v>
@@ -6178,10 +6178,10 @@
         <v>2.25</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU28" t="n">
         <v>1.94</v>
@@ -6587,7 +6587,7 @@
         <v>1.94</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU30" t="n">
         <v>2.4</v>
@@ -6787,7 +6787,7 @@
         <v>2</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AT31" t="n">
         <v>2.31</v>
@@ -6990,10 +6990,10 @@
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AU32" t="n">
         <v>0.67</v>
@@ -7196,7 +7196,7 @@
         <v>1.56</v>
       </c>
       <c r="AT33" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AU33" t="n">
         <v>1.54</v>
@@ -7396,7 +7396,7 @@
         <v>0</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AT34" t="n">
         <v>0.06</v>
@@ -7602,7 +7602,7 @@
         <v>1.31</v>
       </c>
       <c r="AT35" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU35" t="n">
         <v>0</v>
@@ -7802,7 +7802,7 @@
         <v>2.33</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT36" t="n">
         <v>2.31</v>
@@ -8208,10 +8208,10 @@
         <v>1.5</v>
       </c>
       <c r="AS38" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU38" t="n">
         <v>1.47</v>
@@ -8411,7 +8411,7 @@
         <v>1.5</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT39" t="n">
         <v>0.75</v>
@@ -8617,7 +8617,7 @@
         <v>1.94</v>
       </c>
       <c r="AT40" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU40" t="n">
         <v>1.93</v>
@@ -9223,10 +9223,10 @@
         <v>1.67</v>
       </c>
       <c r="AS43" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="AT43" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU43" t="n">
         <v>2.26</v>
@@ -9426,7 +9426,7 @@
         <v>0</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT44" t="n">
         <v>0.8100000000000001</v>
@@ -9632,7 +9632,7 @@
         <v>1.31</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU45" t="n">
         <v>1.26</v>
@@ -10038,7 +10038,7 @@
         <v>1.56</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AU47" t="n">
         <v>1.48</v>
@@ -10238,7 +10238,7 @@
         <v>0</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT48" t="n">
         <v>0.06</v>
@@ -10441,10 +10441,10 @@
         <v>1.33</v>
       </c>
       <c r="AS49" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU49" t="n">
         <v>2.26</v>
@@ -10644,10 +10644,10 @@
         <v>1.4</v>
       </c>
       <c r="AS50" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU50" t="n">
         <v>1.52</v>
@@ -10847,10 +10847,10 @@
         <v>0</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AT51" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU51" t="n">
         <v>1.44</v>
@@ -11050,7 +11050,7 @@
         <v>1</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT52" t="n">
         <v>0.75</v>
@@ -11459,7 +11459,7 @@
         <v>2.38</v>
       </c>
       <c r="AT54" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AU54" t="n">
         <v>1.64</v>
@@ -11662,7 +11662,7 @@
         <v>1.56</v>
       </c>
       <c r="AT55" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU55" t="n">
         <v>1.46</v>
@@ -11862,10 +11862,10 @@
         <v>1</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU56" t="n">
         <v>1.45</v>
@@ -12065,10 +12065,10 @@
         <v>0.25</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT57" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AU57" t="n">
         <v>0.85</v>
@@ -12674,7 +12674,7 @@
         <v>1</v>
       </c>
       <c r="AS60" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AT60" t="n">
         <v>1.69</v>
@@ -13286,7 +13286,7 @@
         <v>1.94</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU63" t="n">
         <v>1.58</v>
@@ -13486,10 +13486,10 @@
         <v>0.75</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT64" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AU64" t="n">
         <v>1.87</v>
@@ -13689,7 +13689,7 @@
         <v>0.25</v>
       </c>
       <c r="AS65" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="AT65" t="n">
         <v>0.8100000000000001</v>
@@ -14095,10 +14095,10 @@
         <v>0</v>
       </c>
       <c r="AS67" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="AT67" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU67" t="n">
         <v>1.95</v>
@@ -14301,7 +14301,7 @@
         <v>2.38</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU68" t="n">
         <v>1.53</v>
@@ -14501,10 +14501,10 @@
         <v>1.25</v>
       </c>
       <c r="AS69" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT69" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU69" t="n">
         <v>0.91</v>
@@ -14907,10 +14907,10 @@
         <v>0</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT71" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU71" t="n">
         <v>1.5</v>
@@ -15313,7 +15313,7 @@
         <v>0.2</v>
       </c>
       <c r="AS73" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AT73" t="n">
         <v>0.8100000000000001</v>
@@ -16128,7 +16128,7 @@
         <v>1.31</v>
       </c>
       <c r="AT77" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AU77" t="n">
         <v>1.17</v>
@@ -16328,7 +16328,7 @@
         <v>1</v>
       </c>
       <c r="AS78" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="AT78" t="n">
         <v>1.25</v>
@@ -16531,10 +16531,10 @@
         <v>1.2</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AT79" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AU79" t="n">
         <v>1.44</v>
@@ -16737,7 +16737,7 @@
         <v>2.38</v>
       </c>
       <c r="AT80" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU80" t="n">
         <v>1.58</v>
@@ -16937,7 +16937,7 @@
         <v>0.67</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT81" t="n">
         <v>0.8100000000000001</v>
@@ -17140,10 +17140,10 @@
         <v>0.67</v>
       </c>
       <c r="AS82" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AT82" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AU82" t="n">
         <v>1.07</v>
@@ -17346,7 +17346,7 @@
         <v>1.31</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU83" t="n">
         <v>1.13</v>
@@ -17546,10 +17546,10 @@
         <v>1.86</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT84" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU84" t="n">
         <v>1.46</v>
@@ -17749,7 +17749,7 @@
         <v>2.67</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT85" t="n">
         <v>2.31</v>
@@ -17952,7 +17952,7 @@
         <v>0.86</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AT86" t="n">
         <v>1.25</v>
@@ -18361,7 +18361,7 @@
         <v>1.56</v>
       </c>
       <c r="AT88" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU88" t="n">
         <v>1.52</v>
@@ -18561,10 +18561,10 @@
         <v>1.5</v>
       </c>
       <c r="AS89" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AU89" t="n">
         <v>1.09</v>
@@ -18767,7 +18767,7 @@
         <v>1.63</v>
       </c>
       <c r="AT90" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU90" t="n">
         <v>1.15</v>
@@ -18967,7 +18967,7 @@
         <v>0.5</v>
       </c>
       <c r="AS91" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="AT91" t="n">
         <v>0.75</v>
@@ -19376,7 +19376,7 @@
         <v>1.31</v>
       </c>
       <c r="AT93" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AU93" t="n">
         <v>1.11</v>
@@ -19779,10 +19779,10 @@
         <v>0.88</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT95" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AU95" t="n">
         <v>1.4</v>
@@ -20185,10 +20185,10 @@
         <v>1.63</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT97" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU97" t="n">
         <v>1.37</v>
@@ -20388,7 +20388,7 @@
         <v>1.38</v>
       </c>
       <c r="AS98" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AT98" t="n">
         <v>1.69</v>
@@ -20797,7 +20797,7 @@
         <v>1.31</v>
       </c>
       <c r="AT100" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU100" t="n">
         <v>1.12</v>
@@ -21406,7 +21406,7 @@
         <v>1.56</v>
       </c>
       <c r="AT103" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU103" t="n">
         <v>1.46</v>
@@ -21606,10 +21606,10 @@
         <v>1.44</v>
       </c>
       <c r="AS104" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT104" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU104" t="n">
         <v>1.02</v>
@@ -21809,10 +21809,10 @@
         <v>0.78</v>
       </c>
       <c r="AS105" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AT105" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AU105" t="n">
         <v>1.32</v>
@@ -22012,7 +22012,7 @@
         <v>0</v>
       </c>
       <c r="AS106" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="AT106" t="n">
         <v>0.06</v>
@@ -22215,7 +22215,7 @@
         <v>1.11</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT107" t="n">
         <v>1.25</v>
@@ -22421,7 +22421,7 @@
         <v>2.38</v>
       </c>
       <c r="AT108" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU108" t="n">
         <v>1.64</v>
@@ -22827,7 +22827,7 @@
         <v>1.63</v>
       </c>
       <c r="AT110" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU110" t="n">
         <v>1.3</v>
@@ -23027,7 +23027,7 @@
         <v>1.56</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT111" t="n">
         <v>1.69</v>
@@ -23230,7 +23230,7 @@
         <v>2.25</v>
       </c>
       <c r="AS112" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AT112" t="n">
         <v>2.31</v>
@@ -23436,7 +23436,7 @@
         <v>1.31</v>
       </c>
       <c r="AT113" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AU113" t="n">
         <v>1.25</v>
@@ -23839,10 +23839,10 @@
         <v>1.78</v>
       </c>
       <c r="AS115" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU115" t="n">
         <v>1.32</v>
@@ -24042,7 +24042,7 @@
         <v>0</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT116" t="n">
         <v>0.06</v>
@@ -24651,10 +24651,10 @@
         <v>0.5</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT119" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU119" t="n">
         <v>1.61</v>
@@ -24854,7 +24854,7 @@
         <v>1.3</v>
       </c>
       <c r="AS120" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AT120" t="n">
         <v>1.25</v>
@@ -25263,7 +25263,7 @@
         <v>1.31</v>
       </c>
       <c r="AT122" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AU122" t="n">
         <v>1.29</v>
@@ -25463,10 +25463,10 @@
         <v>0.7</v>
       </c>
       <c r="AS123" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="AT123" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AU123" t="n">
         <v>2.62</v>
@@ -25669,7 +25669,7 @@
         <v>1.63</v>
       </c>
       <c r="AT124" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AU124" t="n">
         <v>1.34</v>
@@ -25869,10 +25869,10 @@
         <v>0.44</v>
       </c>
       <c r="AS125" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AT125" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU125" t="n">
         <v>1.04</v>
@@ -26275,7 +26275,7 @@
         <v>1.5</v>
       </c>
       <c r="AS127" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT127" t="n">
         <v>1.69</v>
@@ -26478,10 +26478,10 @@
         <v>0.7</v>
       </c>
       <c r="AS128" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT128" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU128" t="n">
         <v>1.01</v>
@@ -26681,7 +26681,7 @@
         <v>0</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT129" t="n">
         <v>0.06</v>
@@ -27087,10 +27087,10 @@
         <v>1.6</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT131" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU131" t="n">
         <v>1.61</v>
@@ -27290,10 +27290,10 @@
         <v>1.6</v>
       </c>
       <c r="AS132" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="AT132" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU132" t="n">
         <v>2.61</v>
@@ -27496,7 +27496,7 @@
         <v>1.94</v>
       </c>
       <c r="AT133" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AU133" t="n">
         <v>1.38</v>
@@ -27696,7 +27696,7 @@
         <v>2.45</v>
       </c>
       <c r="AS134" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT134" t="n">
         <v>2.31</v>
@@ -28105,7 +28105,7 @@
         <v>1.31</v>
       </c>
       <c r="AT136" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AU136" t="n">
         <v>1.3</v>
@@ -28308,7 +28308,7 @@
         <v>1.56</v>
       </c>
       <c r="AT137" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AU137" t="n">
         <v>1.29</v>
@@ -28711,7 +28711,7 @@
         <v>0</v>
       </c>
       <c r="AS139" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AT139" t="n">
         <v>0.06</v>
@@ -28914,7 +28914,7 @@
         <v>1.45</v>
       </c>
       <c r="AS140" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT140" t="n">
         <v>1.25</v>
@@ -29117,10 +29117,10 @@
         <v>0.64</v>
       </c>
       <c r="AS141" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AT141" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU141" t="n">
         <v>1.1</v>
@@ -29320,7 +29320,7 @@
         <v>0.45</v>
       </c>
       <c r="AS142" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT142" t="n">
         <v>0.8100000000000001</v>
@@ -29526,7 +29526,7 @@
         <v>1.94</v>
       </c>
       <c r="AT143" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU143" t="n">
         <v>1.36</v>
@@ -29726,10 +29726,10 @@
         <v>1.45</v>
       </c>
       <c r="AS144" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="AT144" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU144" t="n">
         <v>2.66</v>
@@ -29932,7 +29932,7 @@
         <v>2.38</v>
       </c>
       <c r="AT145" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU145" t="n">
         <v>1.64</v>
@@ -30132,7 +30132,7 @@
         <v>0.33</v>
       </c>
       <c r="AS146" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AT146" t="n">
         <v>0.75</v>
@@ -30338,7 +30338,7 @@
         <v>1.56</v>
       </c>
       <c r="AT147" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU147" t="n">
         <v>1.35</v>
@@ -30538,7 +30538,7 @@
         <v>1.58</v>
       </c>
       <c r="AS148" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="AT148" t="n">
         <v>1.69</v>
@@ -30947,7 +30947,7 @@
         <v>1.31</v>
       </c>
       <c r="AT150" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU150" t="n">
         <v>1.26</v>
@@ -31147,10 +31147,10 @@
         <v>0.58</v>
       </c>
       <c r="AS151" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AT151" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AU151" t="n">
         <v>1.44</v>
@@ -31350,10 +31350,10 @@
         <v>1.33</v>
       </c>
       <c r="AS152" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT152" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU152" t="n">
         <v>1.32</v>
@@ -31553,10 +31553,10 @@
         <v>0.54</v>
       </c>
       <c r="AS153" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT153" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AU153" t="n">
         <v>1.09</v>
@@ -31756,10 +31756,10 @@
         <v>0.83</v>
       </c>
       <c r="AS154" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AT154" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU154" t="n">
         <v>1.45</v>
@@ -32162,10 +32162,10 @@
         <v>1.33</v>
       </c>
       <c r="AS156" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT156" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AU156" t="n">
         <v>1.58</v>
@@ -32365,10 +32365,10 @@
         <v>1.31</v>
       </c>
       <c r="AS157" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="AT157" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU157" t="n">
         <v>2.61</v>
@@ -33789,7 +33789,7 @@
         <v>2.38</v>
       </c>
       <c r="AT164" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU164" t="n">
         <v>1.52</v>
@@ -33992,7 +33992,7 @@
         <v>1.94</v>
       </c>
       <c r="AT165" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU165" t="n">
         <v>1.42</v>
@@ -34192,7 +34192,7 @@
         <v>0.54</v>
       </c>
       <c r="AS166" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AT166" t="n">
         <v>0.8100000000000001</v>
@@ -34395,10 +34395,10 @@
         <v>0.85</v>
       </c>
       <c r="AS167" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT167" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU167" t="n">
         <v>1.07</v>
@@ -34598,7 +34598,7 @@
         <v>1.21</v>
       </c>
       <c r="AS168" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="AT168" t="n">
         <v>1.25</v>
@@ -34801,10 +34801,10 @@
         <v>1.21</v>
       </c>
       <c r="AS169" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT169" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU169" t="n">
         <v>1.57</v>
@@ -35007,7 +35007,7 @@
         <v>1.63</v>
       </c>
       <c r="AT170" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AU170" t="n">
         <v>1.27</v>
@@ -35207,7 +35207,7 @@
         <v>1.64</v>
       </c>
       <c r="AS171" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT171" t="n">
         <v>1.69</v>
@@ -35819,7 +35819,7 @@
         <v>1.31</v>
       </c>
       <c r="AT174" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AU174" t="n">
         <v>1.26</v>
@@ -36019,7 +36019,7 @@
         <v>0.71</v>
       </c>
       <c r="AS175" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AT175" t="n">
         <v>0.75</v>
@@ -36428,7 +36428,7 @@
         <v>1.63</v>
       </c>
       <c r="AT177" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU177" t="n">
         <v>1.27</v>
@@ -36628,10 +36628,10 @@
         <v>1.43</v>
       </c>
       <c r="AS178" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT178" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AU178" t="n">
         <v>1.3</v>
@@ -36831,7 +36831,7 @@
         <v>2.21</v>
       </c>
       <c r="AS179" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT179" t="n">
         <v>2.31</v>
@@ -37034,7 +37034,7 @@
         <v>0</v>
       </c>
       <c r="AS180" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT180" t="n">
         <v>0.06</v>
@@ -37440,10 +37440,10 @@
         <v>0.79</v>
       </c>
       <c r="AS182" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AT182" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU182" t="n">
         <v>1.13</v>
@@ -38458,7 +38458,7 @@
         <v>1.31</v>
       </c>
       <c r="AT187" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU187" t="n">
         <v>1.28</v>
@@ -38510,6 +38510,1224 @@
       </c>
       <c r="BK187" t="n">
         <v>18</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B188" t="n">
+        <v>5170282</v>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Wales Welsh Premier League</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E188" s="2" t="n">
+        <v>45038.36458333334</v>
+      </c>
+      <c r="F188" t="n">
+        <v>10</v>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>Aberystwyth Town</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>Caernarfon Town</t>
+        </is>
+      </c>
+      <c r="I188" t="n">
+        <v>1</v>
+      </c>
+      <c r="J188" t="n">
+        <v>2</v>
+      </c>
+      <c r="K188" t="n">
+        <v>3</v>
+      </c>
+      <c r="L188" t="n">
+        <v>3</v>
+      </c>
+      <c r="M188" t="n">
+        <v>2</v>
+      </c>
+      <c r="N188" t="n">
+        <v>5</v>
+      </c>
+      <c r="O188" t="inlineStr">
+        <is>
+          <t>['39', '55', '90+4']</t>
+        </is>
+      </c>
+      <c r="P188" t="inlineStr">
+        <is>
+          <t>['2', '45+1']</t>
+        </is>
+      </c>
+      <c r="Q188" t="n">
+        <v>10</v>
+      </c>
+      <c r="R188" t="n">
+        <v>6</v>
+      </c>
+      <c r="S188" t="n">
+        <v>16</v>
+      </c>
+      <c r="T188" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U188" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V188" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W188" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X188" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Y188" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z188" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AA188" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB188" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC188" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AD188" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AE188" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AF188" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG188" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH188" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI188" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ188" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK188" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL188" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AM188" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN188" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO188" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP188" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ188" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AR188" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AS188" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AT188" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AU188" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AV188" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AW188" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AX188" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AY188" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AZ188" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BA188" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BB188" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BC188" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="BD188" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE188" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF188" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG188" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH188" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI188" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ188" t="n">
+        <v>21</v>
+      </c>
+      <c r="BK188" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B189" t="n">
+        <v>5170281</v>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Wales Welsh Premier League</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E189" s="2" t="n">
+        <v>45038.36458333334</v>
+      </c>
+      <c r="F189" t="n">
+        <v>10</v>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>The New Saints</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>Connah's Quay</t>
+        </is>
+      </c>
+      <c r="I189" t="n">
+        <v>1</v>
+      </c>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="n">
+        <v>4</v>
+      </c>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="n">
+        <v>5</v>
+      </c>
+      <c r="O189" t="inlineStr">
+        <is>
+          <t>['34', '58', '70', '88']</t>
+        </is>
+      </c>
+      <c r="P189" t="inlineStr">
+        <is>
+          <t>['90+1']</t>
+        </is>
+      </c>
+      <c r="Q189" t="n">
+        <v>4</v>
+      </c>
+      <c r="R189" t="n">
+        <v>1</v>
+      </c>
+      <c r="S189" t="n">
+        <v>5</v>
+      </c>
+      <c r="T189" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U189" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V189" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="W189" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X189" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Y189" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Z189" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AA189" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB189" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC189" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AD189" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AE189" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF189" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG189" t="n">
+        <v>13.25</v>
+      </c>
+      <c r="AH189" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI189" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ189" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK189" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL189" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AM189" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AN189" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AO189" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AP189" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AQ189" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AR189" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AS189" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AT189" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AU189" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AV189" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AW189" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="AX189" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AY189" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ189" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BA189" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB189" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BC189" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BD189" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BE189" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BF189" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG189" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH189" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI189" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ189" t="n">
+        <v>23</v>
+      </c>
+      <c r="BK189" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B190" t="n">
+        <v>5170283</v>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Wales Welsh Premier League</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E190" s="2" t="n">
+        <v>45038.36458333334</v>
+      </c>
+      <c r="F190" t="n">
+        <v>10</v>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>Airbus UK</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>Haverfordwest County</t>
+        </is>
+      </c>
+      <c r="I190" t="n">
+        <v>1</v>
+      </c>
+      <c r="J190" t="n">
+        <v>1</v>
+      </c>
+      <c r="K190" t="n">
+        <v>2</v>
+      </c>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="n">
+        <v>4</v>
+      </c>
+      <c r="N190" t="n">
+        <v>5</v>
+      </c>
+      <c r="O190" t="inlineStr">
+        <is>
+          <t>['20']</t>
+        </is>
+      </c>
+      <c r="P190" t="inlineStr">
+        <is>
+          <t>['3', '48', '55', '70']</t>
+        </is>
+      </c>
+      <c r="Q190" t="n">
+        <v>3</v>
+      </c>
+      <c r="R190" t="n">
+        <v>5</v>
+      </c>
+      <c r="S190" t="n">
+        <v>8</v>
+      </c>
+      <c r="T190" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="U190" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V190" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="W190" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X190" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Y190" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Z190" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AA190" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AB190" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AC190" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD190" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE190" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF190" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG190" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH190" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AI190" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AJ190" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AK190" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AL190" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM190" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN190" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO190" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AP190" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AQ190" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AR190" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="AS190" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AT190" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU190" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AV190" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AW190" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AX190" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AY190" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AZ190" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BA190" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BB190" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC190" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BD190" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BE190" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF190" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG190" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH190" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI190" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ190" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK190" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B191" t="n">
+        <v>5170279</v>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Wales Welsh Premier League</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E191" s="2" t="n">
+        <v>45038.36458333334</v>
+      </c>
+      <c r="F191" t="n">
+        <v>10</v>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>Cardiff MU</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>Bala Town</t>
+        </is>
+      </c>
+      <c r="I191" t="n">
+        <v>2</v>
+      </c>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
+      <c r="K191" t="n">
+        <v>2</v>
+      </c>
+      <c r="L191" t="n">
+        <v>2</v>
+      </c>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+      <c r="N191" t="n">
+        <v>3</v>
+      </c>
+      <c r="O191" t="inlineStr">
+        <is>
+          <t>['29', '42']</t>
+        </is>
+      </c>
+      <c r="P191" t="inlineStr">
+        <is>
+          <t>['80']</t>
+        </is>
+      </c>
+      <c r="Q191" t="n">
+        <v>2</v>
+      </c>
+      <c r="R191" t="n">
+        <v>4</v>
+      </c>
+      <c r="S191" t="n">
+        <v>6</v>
+      </c>
+      <c r="T191" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U191" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V191" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W191" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X191" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Y191" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z191" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AA191" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB191" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC191" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AD191" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AE191" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AF191" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG191" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH191" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI191" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ191" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK191" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL191" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AM191" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN191" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO191" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP191" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ191" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AR191" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AS191" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT191" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AU191" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AV191" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AW191" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AX191" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY191" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ191" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA191" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BB191" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BC191" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BD191" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE191" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF191" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG191" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH191" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI191" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ191" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK191" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B192" t="n">
+        <v>5170280</v>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Wales Welsh Premier League</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E192" s="2" t="n">
+        <v>45038.36458333334</v>
+      </c>
+      <c r="F192" t="n">
+        <v>10</v>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>Penybont</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>Newtown</t>
+        </is>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="n">
+        <v>1</v>
+      </c>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="n">
+        <v>2</v>
+      </c>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+      <c r="N192" t="n">
+        <v>3</v>
+      </c>
+      <c r="O192" t="inlineStr">
+        <is>
+          <t>['62', '84']</t>
+        </is>
+      </c>
+      <c r="P192" t="inlineStr">
+        <is>
+          <t>['16']</t>
+        </is>
+      </c>
+      <c r="Q192" t="n">
+        <v>7</v>
+      </c>
+      <c r="R192" t="n">
+        <v>2</v>
+      </c>
+      <c r="S192" t="n">
+        <v>9</v>
+      </c>
+      <c r="T192" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U192" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V192" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W192" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X192" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y192" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z192" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA192" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB192" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC192" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AD192" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="AE192" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AF192" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG192" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH192" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AI192" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ192" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK192" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AL192" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM192" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN192" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AO192" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP192" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AQ192" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AR192" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS192" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AT192" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AU192" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AV192" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AW192" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AX192" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AY192" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AZ192" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BA192" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB192" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BC192" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BD192" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BE192" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BF192" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG192" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH192" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI192" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ192" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK192" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B193" t="n">
+        <v>5170284</v>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Wales Welsh Premier League</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E193" s="2" t="n">
+        <v>45038.36458333334</v>
+      </c>
+      <c r="F193" t="n">
+        <v>10</v>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>Pontypridd Town AFC</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>Flint Town United</t>
+        </is>
+      </c>
+      <c r="I193" t="n">
+        <v>1</v>
+      </c>
+      <c r="J193" t="n">
+        <v>1</v>
+      </c>
+      <c r="K193" t="n">
+        <v>2</v>
+      </c>
+      <c r="L193" t="n">
+        <v>3</v>
+      </c>
+      <c r="M193" t="n">
+        <v>2</v>
+      </c>
+      <c r="N193" t="n">
+        <v>5</v>
+      </c>
+      <c r="O193" t="inlineStr">
+        <is>
+          <t>['26', '78', '82']</t>
+        </is>
+      </c>
+      <c r="P193" t="inlineStr">
+        <is>
+          <t>['8', '68']</t>
+        </is>
+      </c>
+      <c r="Q193" t="n">
+        <v>2</v>
+      </c>
+      <c r="R193" t="n">
+        <v>8</v>
+      </c>
+      <c r="S193" t="n">
+        <v>10</v>
+      </c>
+      <c r="T193" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U193" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V193" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W193" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X193" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y193" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z193" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA193" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB193" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC193" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AD193" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="AE193" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AF193" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG193" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="AH193" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI193" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="AJ193" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AK193" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AL193" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AM193" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN193" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AO193" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP193" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ193" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR193" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AS193" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT193" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AU193" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AV193" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AW193" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AX193" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="AY193" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ193" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BA193" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BB193" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BC193" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BD193" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="BE193" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF193" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG193" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH193" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI193" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ193" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK193" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Wales Welsh Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Wales Welsh Premier League_20222023.xlsx
@@ -38703,16 +38703,16 @@
         <v>6</v>
       </c>
       <c r="BH188" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="BI188" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BJ188" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="BK188" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="189">

--- a/Bases_de_Dados_(2022-2023)/Wales Welsh Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Wales Welsh Premier League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK193"/>
+  <dimension ref="A1:BK194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AT10" t="n">
         <v>1</v>
@@ -3539,10 +3539,10 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AU15" t="n">
         <v>0.86</v>
@@ -6587,7 +6587,7 @@
         <v>1.94</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AU30" t="n">
         <v>2.4</v>
@@ -8211,7 +8211,7 @@
         <v>0.06</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AU38" t="n">
         <v>1.47</v>
@@ -9020,7 +9020,7 @@
         <v>1.5</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AT42" t="n">
         <v>1.25</v>
@@ -10444,7 +10444,7 @@
         <v>2.88</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AU49" t="n">
         <v>2.26</v>
@@ -11865,7 +11865,7 @@
         <v>1.75</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AU56" t="n">
         <v>1.45</v>
@@ -12268,7 +12268,7 @@
         <v>2.5</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AT58" t="n">
         <v>2.31</v>
@@ -14301,7 +14301,7 @@
         <v>2.38</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AU68" t="n">
         <v>1.53</v>
@@ -15313,7 +15313,7 @@
         <v>1.4</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AT73" t="n">
         <v>1.69</v>
@@ -15516,7 +15516,7 @@
         <v>0.6</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AT74" t="n">
         <v>0.75</v>
@@ -17549,7 +17549,7 @@
         <v>1.31</v>
       </c>
       <c r="AT84" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AU84" t="n">
         <v>1.13</v>
@@ -18361,7 +18361,7 @@
         <v>1.56</v>
       </c>
       <c r="AT88" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AU88" t="n">
         <v>1.52</v>
@@ -18561,7 +18561,7 @@
         <v>1.11</v>
       </c>
       <c r="AS89" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AT89" t="n">
         <v>0.88</v>
@@ -20188,7 +20188,7 @@
         <v>2</v>
       </c>
       <c r="AT97" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AU97" t="n">
         <v>1.37</v>
@@ -20591,7 +20591,7 @@
         <v>0</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AT99" t="n">
         <v>0.06</v>
@@ -22015,7 +22015,7 @@
         <v>1.63</v>
       </c>
       <c r="AT106" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AU106" t="n">
         <v>1.02</v>
@@ -22824,7 +22824,7 @@
         <v>0.57</v>
       </c>
       <c r="AS110" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AT110" t="n">
         <v>0.88</v>
@@ -25260,7 +25260,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AT122" t="n">
         <v>0.8100000000000001</v>
@@ -25666,7 +25666,7 @@
         <v>1.56</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AT124" t="n">
         <v>1.44</v>
@@ -27090,7 +27090,7 @@
         <v>1.94</v>
       </c>
       <c r="AT131" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AU131" t="n">
         <v>1.61</v>
@@ -28305,7 +28305,7 @@
         <v>1.64</v>
       </c>
       <c r="AS137" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AT137" t="n">
         <v>1.69</v>
@@ -29932,7 +29932,7 @@
         <v>2.88</v>
       </c>
       <c r="AT145" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AU145" t="n">
         <v>2.66</v>
@@ -31353,7 +31353,7 @@
         <v>2</v>
       </c>
       <c r="AT152" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AU152" t="n">
         <v>1.32</v>
@@ -32974,7 +32974,7 @@
         <v>1.23</v>
       </c>
       <c r="AS160" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AT160" t="n">
         <v>1.25</v>
@@ -33789,7 +33789,7 @@
         <v>2.38</v>
       </c>
       <c r="AT164" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AU164" t="n">
         <v>1.52</v>
@@ -35004,7 +35004,7 @@
         <v>1.31</v>
       </c>
       <c r="AS170" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AT170" t="n">
         <v>1.44</v>
@@ -36222,10 +36222,10 @@
         <v>1.21</v>
       </c>
       <c r="AS176" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AT176" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AU176" t="n">
         <v>1.27</v>
@@ -37440,7 +37440,7 @@
         <v>2.27</v>
       </c>
       <c r="AS182" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AT182" t="n">
         <v>2.31</v>
@@ -38864,7 +38864,7 @@
         <v>1.94</v>
       </c>
       <c r="AT189" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AU189" t="n">
         <v>1.55</v>
@@ -39728,6 +39728,209 @@
       </c>
       <c r="BK193" t="n">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B194" t="n">
+        <v>6026450</v>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Wales Welsh Premier League</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E194" s="2" t="n">
+        <v>45051.65625</v>
+      </c>
+      <c r="F194" t="n">
+        <v>0</v>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>Bala Town</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>Newtown</t>
+        </is>
+      </c>
+      <c r="I194" t="n">
+        <v>1</v>
+      </c>
+      <c r="J194" t="n">
+        <v>2</v>
+      </c>
+      <c r="K194" t="n">
+        <v>3</v>
+      </c>
+      <c r="L194" t="n">
+        <v>2</v>
+      </c>
+      <c r="M194" t="n">
+        <v>4</v>
+      </c>
+      <c r="N194" t="n">
+        <v>6</v>
+      </c>
+      <c r="O194" t="inlineStr">
+        <is>
+          <t>['36', '71']</t>
+        </is>
+      </c>
+      <c r="P194" t="inlineStr">
+        <is>
+          <t>['16', '43', '53', '82']</t>
+        </is>
+      </c>
+      <c r="Q194" t="n">
+        <v>5</v>
+      </c>
+      <c r="R194" t="n">
+        <v>2</v>
+      </c>
+      <c r="S194" t="n">
+        <v>7</v>
+      </c>
+      <c r="T194" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U194" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V194" t="n">
+        <v>4</v>
+      </c>
+      <c r="W194" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X194" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y194" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Z194" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AA194" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB194" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC194" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AD194" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE194" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AF194" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG194" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH194" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI194" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AJ194" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AK194" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AL194" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM194" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AN194" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO194" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP194" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AQ194" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AR194" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AS194" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT194" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU194" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AV194" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AW194" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AX194" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AY194" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AZ194" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BA194" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BB194" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BC194" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BD194" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BE194" t="n">
+        <v>4</v>
+      </c>
+      <c r="BF194" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG194" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH194" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI194" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ194" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK194" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Wales Welsh Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Wales Welsh Premier League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK194"/>
+  <dimension ref="A1:BK195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AT3" t="n">
         <v>1.44</v>
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AT22" t="n">
         <v>0.8100000000000001</v>
@@ -6178,7 +6178,7 @@
         <v>2.25</v>
       </c>
       <c r="AS28" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AT28" t="n">
         <v>0.88</v>
@@ -7193,7 +7193,7 @@
         <v>2.33</v>
       </c>
       <c r="AS33" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AT33" t="n">
         <v>2.31</v>
@@ -11456,7 +11456,7 @@
         <v>1</v>
       </c>
       <c r="AS54" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AT54" t="n">
         <v>0.75</v>
@@ -15110,7 +15110,7 @@
         <v>0</v>
       </c>
       <c r="AS72" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AT72" t="n">
         <v>0.88</v>
@@ -17546,7 +17546,7 @@
         <v>1.86</v>
       </c>
       <c r="AS84" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AT84" t="n">
         <v>1.13</v>
@@ -19779,7 +19779,7 @@
         <v>0.88</v>
       </c>
       <c r="AS95" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AT95" t="n">
         <v>1</v>
@@ -20185,7 +20185,7 @@
         <v>1.63</v>
       </c>
       <c r="AS97" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AT97" t="n">
         <v>1.35</v>
@@ -22824,7 +22824,7 @@
         <v>1.56</v>
       </c>
       <c r="AS110" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AT110" t="n">
         <v>1.69</v>
@@ -26681,7 +26681,7 @@
         <v>0</v>
       </c>
       <c r="AS129" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AT129" t="n">
         <v>0.06</v>
@@ -27696,7 +27696,7 @@
         <v>2.45</v>
       </c>
       <c r="AS134" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AT134" t="n">
         <v>2.31</v>
@@ -31350,7 +31350,7 @@
         <v>1.33</v>
       </c>
       <c r="AS152" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AT152" t="n">
         <v>1.35</v>
@@ -35004,7 +35004,7 @@
         <v>1.64</v>
       </c>
       <c r="AS170" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AT170" t="n">
         <v>1.69</v>
@@ -36628,7 +36628,7 @@
         <v>1.43</v>
       </c>
       <c r="AS178" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AT178" t="n">
         <v>1.44</v>
@@ -38658,7 +38658,7 @@
         <v>1.2</v>
       </c>
       <c r="AS188" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AT188" t="n">
         <v>1.13</v>
@@ -39930,6 +39930,209 @@
         <v>14</v>
       </c>
       <c r="BK194" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B195" t="n">
+        <v>6026451</v>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Wales Welsh Premier League</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E195" s="2" t="n">
+        <v>45052.55208333334</v>
+      </c>
+      <c r="F195" t="n">
+        <v>0</v>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>Cardiff MU</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>Haverfordwest County</t>
+        </is>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
+      <c r="K195" t="n">
+        <v>0</v>
+      </c>
+      <c r="L195" t="n">
+        <v>0</v>
+      </c>
+      <c r="M195" t="n">
+        <v>0</v>
+      </c>
+      <c r="N195" t="n">
+        <v>0</v>
+      </c>
+      <c r="O195" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P195" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q195" t="n">
+        <v>7</v>
+      </c>
+      <c r="R195" t="n">
+        <v>2</v>
+      </c>
+      <c r="S195" t="n">
+        <v>9</v>
+      </c>
+      <c r="T195" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U195" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V195" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="W195" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X195" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="Y195" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z195" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AA195" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB195" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC195" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AD195" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AE195" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF195" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG195" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH195" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI195" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ195" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK195" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL195" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM195" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AN195" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO195" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP195" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AQ195" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AR195" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AS195" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AT195" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AU195" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AV195" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AW195" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AX195" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY195" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ195" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA195" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB195" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC195" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD195" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE195" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF195" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG195" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH195" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI195" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ195" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK195" t="n">
         <v>8</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Wales Welsh Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Wales Welsh Premier League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK195"/>
+  <dimension ref="A1:BK196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT5" t="n">
         <v>2.31</v>
@@ -2321,7 +2321,7 @@
         <v>3</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT9" t="n">
         <v>0.88</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT21" t="n">
         <v>0.88</v>
@@ -8005,7 +8005,7 @@
         <v>0</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT37" t="n">
         <v>1.69</v>
@@ -10035,7 +10035,7 @@
         <v>1</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT47" t="n">
         <v>1.13</v>
@@ -13283,7 +13283,7 @@
         <v>0.6</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT63" t="n">
         <v>1.25</v>
@@ -15719,7 +15719,7 @@
         <v>0</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT75" t="n">
         <v>0.06</v>
@@ -19373,7 +19373,7 @@
         <v>1</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT93" t="n">
         <v>1</v>
@@ -19576,7 +19576,7 @@
         <v>0.57</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT94" t="n">
         <v>0.8100000000000001</v>
@@ -22621,7 +22621,7 @@
         <v>0.33</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT109" t="n">
         <v>0.75</v>
@@ -25463,7 +25463,7 @@
         <v>1.63</v>
       </c>
       <c r="AS123" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT123" t="n">
         <v>1.44</v>
@@ -27899,7 +27899,7 @@
         <v>1.36</v>
       </c>
       <c r="AS135" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT135" t="n">
         <v>1.44</v>
@@ -30944,7 +30944,7 @@
         <v>1.42</v>
       </c>
       <c r="AS150" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT150" t="n">
         <v>1.13</v>
@@ -33177,7 +33177,7 @@
         <v>1.54</v>
       </c>
       <c r="AS161" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT161" t="n">
         <v>1.69</v>
@@ -35613,7 +35613,7 @@
         <v>2.15</v>
       </c>
       <c r="AS173" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT173" t="n">
         <v>2.31</v>
@@ -37846,7 +37846,7 @@
         <v>1.13</v>
       </c>
       <c r="AS184" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT184" t="n">
         <v>1.25</v>
@@ -39879,7 +39879,7 @@
         <v>1.33</v>
       </c>
       <c r="AT194" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AU194" t="n">
         <v>1.27</v>
@@ -40082,7 +40082,7 @@
         <v>1.61</v>
       </c>
       <c r="AT195" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="AU195" t="n">
         <v>1.29</v>
@@ -40133,6 +40133,209 @@
         <v>10</v>
       </c>
       <c r="BK195" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B196" t="n">
+        <v>6070769</v>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Wales Welsh Premier League</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E196" s="2" t="n">
+        <v>45059.55208333334</v>
+      </c>
+      <c r="F196" t="n">
+        <v>0</v>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>Newtown</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>Haverfordwest County</t>
+        </is>
+      </c>
+      <c r="I196" t="n">
+        <v>1</v>
+      </c>
+      <c r="J196" t="n">
+        <v>1</v>
+      </c>
+      <c r="K196" t="n">
+        <v>2</v>
+      </c>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+      <c r="N196" t="n">
+        <v>2</v>
+      </c>
+      <c r="O196" t="inlineStr">
+        <is>
+          <t>['38']</t>
+        </is>
+      </c>
+      <c r="P196" t="inlineStr">
+        <is>
+          <t>['24']</t>
+        </is>
+      </c>
+      <c r="Q196" t="n">
+        <v>3</v>
+      </c>
+      <c r="R196" t="n">
+        <v>4</v>
+      </c>
+      <c r="S196" t="n">
+        <v>7</v>
+      </c>
+      <c r="T196" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U196" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V196" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W196" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X196" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Y196" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="Z196" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AA196" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB196" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC196" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AD196" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AE196" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AF196" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG196" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH196" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AI196" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AJ196" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AK196" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AL196" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AM196" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AN196" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AO196" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP196" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AQ196" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR196" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AS196" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AT196" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AU196" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AV196" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AW196" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AX196" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY196" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ196" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA196" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB196" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC196" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD196" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE196" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF196" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG196" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH196" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI196" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ196" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK196" t="n">
         <v>8</v>
       </c>
     </row>
